--- a/results/CNN_2layers_adaptive_maxpool=3/mx_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
+++ b/results/CNN_2layers_adaptive_maxpool=3/mx_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\CNN_2layers_adaptive_maxpool=3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F002C71B-8082-4EEE-803D-4D94CF073095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6A64E-FD95-4E8D-B817-F52CEB40A375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" r:id="rId1"/>
@@ -201,6 +201,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -555,7 +556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -904,7 +907,7 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>89.061929601467142</v>
+        <v>89.061929601467099</v>
       </c>
       <c r="C21">
         <v>0.43602531456078097</v>

--- a/results/CNN_2layers_adaptive_maxpool=3/mx_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
+++ b/results/CNN_2layers_adaptive_maxpool=3/mx_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\CNN_2layers_adaptive_maxpool=3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6A64E-FD95-4E8D-B817-F52CEB40A375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32356EF7-10A0-4D79-832E-0BD9DB21A744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Identifier</t>
   </si>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>sub15ex3</t>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -554,11 +558,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1106,7 +1108,7 @@
         <v>0.91517334065209399</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>0.88272945116039758</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1140,7 +1142,7 @@
         <v>0.92335703401108626</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>0.82774639971430941</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>0.75373623146859914</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>0.90957714858575467</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1208,7 +1210,7 @@
         <v>0.83985714583133697</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>0.88329077860050087</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>0.87553831458569964</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1259,7 +1261,7 @@
         <v>0.85583591082048405</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1276,7 +1278,7 @@
         <v>0.76431389692922436</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1293,7 +1295,7 @@
         <v>0.74617310327347719</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>0.97255219366585166</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>0.9732159654030681</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1343,9 +1345,18 @@
       <c r="E46">
         <v>0.95109413445002211</v>
       </c>
-      <c r="F46">
-        <f>AVERAGE(B3:B46)</f>
-        <v>83.952702091634947</v>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <f>AVERAGE(B2:B46)</f>
+        <v>83.890760300694637</v>
+      </c>
+      <c r="E47">
+        <f>AVERAGE(E2:E46)</f>
+        <v>0.8334802112426648</v>
       </c>
     </row>
   </sheetData>
